--- a/perfromance.xlsx
+++ b/perfromance.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a087f1af566bbf7/PostProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57FBEE59-3E96-204F-8E73-1C645D9D15A8}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9927BAEC-7B8A-5C4E-A26F-B17E10A81703}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$M$2:$M$8</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$M$2:$M$8</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$3</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>sec</t>
   </si>
@@ -83,6 +80,9 @@
   <si>
     <t>time/sampling_size</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +338,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -673,6 +756,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -836,6 +979,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>walltime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1008,6 +1176,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1343,6 +1594,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4163,11 +4497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA1A9C-CD69-A344-B310-5685DA868A33}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="6" width="10.83203125" style="4"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
@@ -4175,7 +4509,7 @@
     <col min="13" max="13" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4213,7 +4547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>8</v>
       </c>
@@ -4254,7 +4588,7 @@
         <v>3.750867132767793E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>12</v>
       </c>
@@ -4297,7 +4631,7 @@
         <v>2.7614677264594422E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>16</v>
       </c>
@@ -4340,7 +4674,7 @@
         <v>1.3433629036797344E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>24</v>
       </c>
@@ -4383,7 +4717,7 @@
         <v>1.1320797838448708E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>36</v>
       </c>
@@ -4426,7 +4760,7 @@
         <v>1.0199408252274625E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>54</v>
       </c>
@@ -4469,7 +4803,7 @@
         <v>5.700065899496053E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>72</v>
       </c>
@@ -4515,6 +4849,70 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35392F93-6803-4E41-8410-28B1B7A78AB2}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>389972</v>
+      </c>
+      <c r="C2">
+        <v>654503</v>
+      </c>
+      <c r="D2">
+        <v>426574</v>
+      </c>
+      <c r="E2">
+        <v>341421</v>
+      </c>
+      <c r="F2">
+        <v>274906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.7430555555555555E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4664351851851851E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.179398148148148E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.4907407407407406E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.4398148148148145E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/perfromance.xlsx
+++ b/perfromance.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a087f1af566bbf7/PostProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9927BAEC-7B8A-5C4E-A26F-B17E10A81703}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EB7B141-8BE1-9A48-9842-80B6F912A3B7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet2!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet2!$A$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$2:$F$2</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$B$3:$F$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>sec</t>
   </si>
@@ -83,6 +78,27 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>run 6</t>
+  </si>
+  <si>
+    <t>run 7</t>
+  </si>
+  <si>
+    <t>run 8</t>
+  </si>
+  <si>
+    <t>run 9</t>
+  </si>
+  <si>
+    <t>run 10</t>
+  </si>
+  <si>
+    <t>total_samples</t>
+  </si>
+  <si>
+    <t>sample/time</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,12 +148,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -206,7 +238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -241,29 +273,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -271,30 +300,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4601382488479262</c:v>
+                  <c:v>1.6141110545084054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5437271619975639</c:v>
+                  <c:v>2.1694625128380691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2057083188304909</c:v>
+                  <c:v>3.02337786259542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9765147956787223</c:v>
+                  <c:v>3.0525048169556839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9709329582747306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0851996105160664</c:v>
+                  <c:v>3.0598744567841623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,29 +685,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -689,30 +712,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$8</c:f>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97342549923195076</c:v>
+                  <c:v>0.80705552725420271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77186358099878194</c:v>
+                  <c:v>0.72315417094602308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73523610627683034</c:v>
+                  <c:v>0.67186174724342662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66144773237304944</c:v>
+                  <c:v>0.4522229358452865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4401382160407008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34279995672400737</c:v>
+                  <c:v>0.33998605075379579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,26 +1032,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1040,11 +1040,86 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8F1C-724A-9561-081BE332DE98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1079,29 +1154,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -1109,30 +1181,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6337</c:v>
+                  <c:v>6617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4340</c:v>
+                  <c:v>3926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4105</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2873</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2129</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2054</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,7 +1209,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6414-C548-8EB3-F7BAFA981F32}"/>
+              <c16:uniqueId val="{00000002-8F1C-724A-9561-081BE332DE98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1224,40 +1293,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1362,33 +1397,11 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1462,7 +1475,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1497,29 +1510,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
@@ -1527,30 +1537,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$8</c:f>
+              <c:f>Sheet1!$R$2:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.750867132767793E-3</c:v>
+                  <c:v>1.4856082125373929E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7614677264594422E-3</c:v>
+                  <c:v>6.6517457020336449E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3433629036797344E-3</c:v>
+                  <c:v>5.0947099782711752E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1320797838448708E-3</c:v>
+                  <c:v>4.689576231008167E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0199408252274625E-3</c:v>
+                  <c:v>3.2416991187918768E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.700065899496053E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.1618476451154557E-4</c:v>
+                  <c:v>2.6962775486397535E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,6 +1832,783 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9905924874144833E-2"/>
+          <c:y val="0.16718967229394241"/>
+          <c:w val="0.87239571447011743"/>
+          <c:h val="0.76052326626996847"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sample/time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>673.12498110926401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1503.3647478349465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962.8202670318385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2132.3888358778627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3084.8020231213873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3708.8169966199903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8513-9445-831B-86C56DBC609F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1131820751"/>
+        <c:axId val="1131822383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1131820751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131822383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1131822383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1131820751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>walltime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ED8-0946-BACA-B2F2A3592480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ED8-0946-BACA-B2F2A3592480}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="826499487"/>
+        <c:axId val="826501119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="826499487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826501119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="826501119"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826499487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4053,16 +4837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>227542</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597958</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>672042</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>32808</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>216958</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4089,16 +4873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94192</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>375707</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>756707</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>149226</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4125,16 +4909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121709</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576793</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>656167</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4161,16 +4945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>724958</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125941</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248710</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539752</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4190,6 +4974,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206376</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179918</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1715D673-EE24-AA46-BB2F-B52B83D07EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>306917</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>11642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF68634F-7D6B-2047-88F2-0E16C217505C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4495,21 +5353,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA1A9C-CD69-A344-B310-5685DA868A33}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" style="4"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="7" max="11" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4528,26 +5387,44 @@
       <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -4567,284 +5444,542 @@
         <v>6.834490740740741E-2</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G8" si="0">AVERAGE(B2:F2)</f>
-        <v>7.3349537037037033E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H8" si="1">HOUR(G2)*3600+MINUTE(G2)*60+SECOND(G2)</f>
-        <v>6337</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1689476</v>
-      </c>
-      <c r="J2">
+        <v>6.4317129629629641E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.3395960648148151E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.5363298611111124E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.3052685185185183E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7.3036504629629628E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L7" si="0">AVERAGE(B2:K2)</f>
+        <v>7.6591326388888895E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2" si="1">HOUR(L2)*3600+MINUTE(L2)*60+SECOND(L2)</f>
+        <v>6617</v>
+      </c>
+      <c r="N2" s="3">
+        <v>4454068</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>H2/I2</f>
-        <v>3.750867132767793E-3</v>
+      <c r="R2">
+        <f>M2/N2</f>
+        <v>1.4856082125373929E-3</v>
+      </c>
+      <c r="S2">
+        <f>1/R2</f>
+        <v>673.12498110926401</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.5462962962962962E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.8425925925925926E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.2511574074074079E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.920138888888889E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.1932870370370374E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.582180555555556E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.1604131944444449E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.088119212962963E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.0129652777777781E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.8399525462962965E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>4.543710300925926E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <f>HOUR(L3)*3600+MINUTE(L3)*60+SECOND(L3)</f>
+        <v>3926</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5902210</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O6" si="2">6337/M3</f>
+        <v>1.6141110545084054</v>
+      </c>
+      <c r="P3">
+        <f>O3*8/A3</f>
+        <v>0.80705552725420271</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="3">M3/N3</f>
+        <v>6.6517457020336449E-4</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="4">1/R3</f>
+        <v>1503.3647478349465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.8923611111111108E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.7743055555555557E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.7025462962962961E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.9328703703703704E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.877304398148148E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.5440486111111115E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.9889363425925924E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.6300150462962963E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.0821030092592596E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3804989711934151E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <f>HOUR(L4)*3600+MINUTE(L4)*60+SECOND(L4)</f>
+        <v>2921</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5733398</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2.1694625128380691</v>
+      </c>
+      <c r="P4">
+        <f>O4*8/A4</f>
+        <v>0.72315417094602308</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>5.0947099782711752E-4</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>1962.8202670318385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.7430555555555555E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.4664351851851851E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.179398148148148E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.4907407407407406E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.4398148148148145E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5061087962962966E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.4673935185185184E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.3755370370370368E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.1838356481481483E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.4020787037037038E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.425439814814815E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <f>HOUR(L5)*3600+MINUTE(L5)*60+SECOND(L5)</f>
+        <v>2096</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4469487</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>3.02337786259542</v>
+      </c>
+      <c r="P5">
+        <f>O5*8/A5</f>
+        <v>0.67186174724342662</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>4.689576231008167E-4</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>2132.3888358778627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.3287037037037037E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.0590277777777775E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.1875000000000002E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.0416666666666666E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.7280092592592592E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.485885416666667E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.0463298611111111E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.2644965277777776E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.5029652777777783E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.3815601851851848E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4026144675925926E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <f>HOUR(L6)*3600+MINUTE(L6)*60+SECOND(L6)</f>
+        <v>2076</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6404049</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>3.0525048169556839</v>
+      </c>
+      <c r="P6">
+        <f>O6*8/A6</f>
+        <v>0.4522229358452865</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>3.2416991187918768E-4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>3084.8020231213873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.0671296296296295E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.1354166666666664E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.5497685185185189E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5648148148148146E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.7701597222222223E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.0034722222222221E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.3775150462962958E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.8990729166666668E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.036736111111111E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3973530092592593E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f>HOUR(L7)*3600+MINUTE(L7)*60+SECOND(L7)</f>
+        <v>2071</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7680960</v>
+      </c>
+      <c r="O7">
+        <f>6337/M7</f>
+        <v>3.0598744567841623</v>
+      </c>
+      <c r="P7">
+        <f>O7*8/A7</f>
+        <v>0.33998605075379579</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>2.6962775486397535E-4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>3708.8169966199903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B11" s="6">
         <v>4.0787037037037038E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C11" s="6">
         <v>4.7858796296296295E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D11" s="6">
         <v>4.8182870370370369E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E11" s="6">
         <v>4.9965277777777782E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F11" s="6">
         <v>6.4351851851851841E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" si="0"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <f>AVERAGE(B11:F11)</f>
         <v>5.0229166666666672E-2</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" si="1"/>
+      <c r="M11" s="8">
+        <f>HOUR(L11)*3600+MINUTE(L11)*60+SECOND(L11)</f>
         <v>4340</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N11" s="9">
         <v>1571628</v>
       </c>
-      <c r="J3">
-        <f>6337/H3</f>
+      <c r="O11" s="5">
+        <f>6337/M11</f>
         <v>1.4601382488479262</v>
       </c>
-      <c r="K3">
-        <f>J3*8/A3</f>
+      <c r="P11" s="5">
+        <f>O11*8/A11</f>
         <v>0.97342549923195076</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M8" si="2">H3/I3</f>
+      <c r="R11" s="5">
+        <f>M11/N11</f>
         <v>2.7614677264594422E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
-        <v>4.5462962962962962E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.8425925925925926E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5.2511574074074079E-2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.920138888888889E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.1932870370370374E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.7506944444444442E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>4105</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3055764</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J8" si="3">6337/H4</f>
-        <v>1.5437271619975639</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K8" si="4">J4*8/A4</f>
-        <v>0.77186358099878194</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>1.3433629036797344E-3</v>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>24</v>
       </c>
-      <c r="B5" s="4">
-        <v>2.8923611111111108E-2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.7743055555555557E-2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.7025462962962961E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.9328703703703704E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3255208333333328E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>2873</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2537807</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>2.2057083188304909</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.73523610627683034</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>1.1320797838448708E-3</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>36</v>
       </c>
-      <c r="B6" s="4">
-        <v>2.7430555555555555E-2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2.4664351851851851E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.179398148148148E-2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.4907407407407406E-2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.4398148148148145E-2</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4638888888888887E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>2129</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2087376</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>2.9765147956787223</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.66144773237304944</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>1.0199408252274625E-3</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>54</v>
       </c>
-      <c r="B7" s="4">
-        <v>2.3287037037037037E-2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.0590277777777775E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.1875000000000002E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.0416666666666666E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.7280092592592592E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4689814814814814E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3742062</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>2.9709329582747306</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.4401382160407008</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>5.700065899496053E-4</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="S19" s="3"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>72</v>
       </c>
-      <c r="B8" s="4">
-        <v>2.0671296296296295E-2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2.1354166666666664E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.5694444444444447E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.5497685185185189E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.5648148148148146E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3773148148148147E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>2054</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2867975</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>3.0851996105160664</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.34279995672400737</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>7.1618476451154557E-4</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4858,21 +5993,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35392F93-6803-4E41-8410-28B1B7A78AB2}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4892,7 +6027,7 @@
         <v>274906</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>

--- a/perfromance.xlsx
+++ b/perfromance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a087f1af566bbf7/PostProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5EB7B141-8BE1-9A48-9842-80B6F912A3B7}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B175C469-813F-544D-B69A-B73E83178B5A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4838,15 +4837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>597958</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>20109</xdr:rowOff>
+      <xdr:colOff>375707</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>216958</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>820207</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>64559</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4874,15 +4873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>375707</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>20110</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>756707</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>149226</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4909,16 +4908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576793</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>248709</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4945,16 +4944,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>248710</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>820211</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>539752</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4981,16 +4980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>206376</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354543</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>179918</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5355,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA1A9C-CD69-A344-B310-5685DA868A33}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/perfromance.xlsx
+++ b/perfromance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a087f1af566bbf7/PostProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B175C469-813F-544D-B69A-B73E83178B5A}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{EE3FFEAB-1959-8344-894C-24667BF7D659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{21889845-F173-404F-B8EC-AA1E989F8C4B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{423154AD-4288-E44E-9234-20E0DF487C30}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>sec</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>sample/time</t>
+  </si>
+  <si>
+    <t>ideal_speedup</t>
   </si>
 </sst>
 </file>
@@ -196,37 +199,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -247,9 +220,100 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6141110545084054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1694625128380691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.02337786259542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0525048169556839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0598744567841623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE54-504E-A61D-F3A23BFA956D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ideal speedup</c:v>
+          </c:tx>
+          <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -260,11 +324,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -299,7 +363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -307,19 +371,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6141110545084054</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1694625128380691</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.02337786259542</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0525048169556839</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0598744567841623</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,7 +391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE54-504E-A61D-F3A23BFA956D}"/>
+              <c16:uniqueId val="{00000001-1314-9A44-B643-F05DE01FA2A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -369,31 +433,17 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
+                <a:pPr algn="ctr" rtl="0">
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:sysClr>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -415,31 +465,17 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
+              <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-CN"/>
@@ -475,9 +511,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-CN"/>
@@ -491,6 +527,8 @@
         <c:axId val="742178927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -508,7 +546,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0536379509059254E-2"/>
+              <c:y val="0.33503100269017116"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -537,9 +638,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-CN"/>
@@ -581,7 +682,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-CN"/>
     </a:p>
@@ -1541,22 +1645,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.4856082125373929E-3</c:v>
+                  <c:v>1.4856082125373928E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6517457020336449E-4</c:v>
+                  <c:v>6.6517457020336453E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0947099782711752E-4</c:v>
+                  <c:v>5.0947099782711752E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.689576231008167E-4</c:v>
+                  <c:v>4.6895762310081674E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2416991187918768E-4</c:v>
+                  <c:v>3.2416991187918767E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6962775486397535E-4</c:v>
+                  <c:v>2.6962775486397534E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,45 +1949,15 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9905924874144833E-2"/>
-          <c:y val="0.16718967229394241"/>
+          <c:x val="9.9776480749819346E-2"/>
+          <c:y val="7.8338230695269878E-2"/>
           <c:w val="0.87239571447011743"/>
           <c:h val="0.76052326626996847"/>
         </c:manualLayout>
@@ -1908,23 +1982,24 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1963,22 +2038,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>673.12498110926401</c:v>
+                  <c:v>67.312498110926398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1503.3647478349465</c:v>
+                  <c:v>150.33647478349465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1962.8202670318385</c:v>
+                  <c:v>196.28202670318385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2132.3888358778627</c:v>
+                  <c:v>213.23888358778623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3084.8020231213873</c:v>
+                  <c:v>308.48020231213872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3708.8169966199903</c:v>
+                  <c:v>370.88169966199905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,6 +2097,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2051,9 +2186,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-CN"/>
@@ -2084,7 +2219,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2113,9 +2248,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-CN"/>
@@ -2157,7 +2292,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-CN"/>
     </a:p>
@@ -4836,16 +4974,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>375707</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>337293</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>820207</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>64559</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>331611</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4872,16 +5010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>168276</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>629707</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>96310</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4980,16 +5118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>354543</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>189442</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>179918</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>683381</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5017,15 +5155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>306917</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>167217</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>11642</xdr:rowOff>
+      <xdr:rowOff>202142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5352,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CA1A9C-CD69-A344-B310-5685DA868A33}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="281" zoomScaleNormal="281" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5367,7 +5505,7 @@
     <col min="18" max="18" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5422,8 +5560,11 @@
       <c r="S1" t="s">
         <v>20</v>
       </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -5466,7 +5607,7 @@
         <v>6617</v>
       </c>
       <c r="N2" s="3">
-        <v>4454068</v>
+        <v>445406.8</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -5476,14 +5617,18 @@
       </c>
       <c r="R2">
         <f>M2/N2</f>
-        <v>1.4856082125373929E-3</v>
+        <v>1.4856082125373928E-2</v>
       </c>
       <c r="S2">
         <f>1/R2</f>
-        <v>673.12498110926401</v>
+        <v>67.312498110926398</v>
+      </c>
+      <c r="U2">
+        <f>A2/8</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>16</v>
       </c>
@@ -5526,10 +5671,10 @@
         <v>3926</v>
       </c>
       <c r="N3" s="3">
-        <v>5902210</v>
+        <v>590221</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="2">6337/M3</f>
+        <f>6337/M3</f>
         <v>1.6141110545084054</v>
       </c>
       <c r="P3">
@@ -5537,15 +5682,19 @@
         <v>0.80705552725420271</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="3">M3/N3</f>
-        <v>6.6517457020336449E-4</v>
+        <f t="shared" ref="R3:R7" si="2">M3/N3</f>
+        <v>6.6517457020336453E-3</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="4">1/R3</f>
-        <v>1503.3647478349465</v>
+        <f t="shared" ref="S3:S7" si="3">1/R3</f>
+        <v>150.33647478349465</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U7" si="4">A3/8</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>24</v>
       </c>
@@ -5588,10 +5737,10 @@
         <v>2921</v>
       </c>
       <c r="N4" s="3">
-        <v>5733398</v>
+        <v>573339.80000000005</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O3:O6" si="5">6337/M4</f>
         <v>2.1694625128380691</v>
       </c>
       <c r="P4">
@@ -5599,15 +5748,19 @@
         <v>0.72315417094602308</v>
       </c>
       <c r="R4">
+        <f t="shared" si="2"/>
+        <v>5.0947099782711752E-3</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="3"/>
-        <v>5.0947099782711752E-4</v>
-      </c>
-      <c r="S4">
+        <v>196.28202670318385</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="4"/>
-        <v>1962.8202670318385</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36</v>
       </c>
@@ -5650,10 +5803,10 @@
         <v>2096</v>
       </c>
       <c r="N5" s="3">
-        <v>4469487</v>
+        <v>446948.7</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.02337786259542</v>
       </c>
       <c r="P5">
@@ -5661,15 +5814,19 @@
         <v>0.67186174724342662</v>
       </c>
       <c r="R5">
+        <f t="shared" si="2"/>
+        <v>4.6895762310081674E-3</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="3"/>
-        <v>4.689576231008167E-4</v>
-      </c>
-      <c r="S5">
+        <v>213.23888358778623</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="4"/>
-        <v>2132.3888358778627</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>54</v>
       </c>
@@ -5712,10 +5869,10 @@
         <v>2076</v>
       </c>
       <c r="N6" s="3">
-        <v>6404049</v>
+        <v>640404.9</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.0525048169556839</v>
       </c>
       <c r="P6">
@@ -5723,15 +5880,19 @@
         <v>0.4522229358452865</v>
       </c>
       <c r="R6">
+        <f t="shared" si="2"/>
+        <v>3.2416991187918767E-3</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="3"/>
-        <v>3.2416991187918768E-4</v>
-      </c>
-      <c r="S6">
+        <v>308.48020231213872</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="4"/>
-        <v>3084.8020231213873</v>
+        <v>6.75</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>72</v>
       </c>
@@ -5774,7 +5935,7 @@
         <v>2071</v>
       </c>
       <c r="N7" s="3">
-        <v>7680960</v>
+        <v>768096</v>
       </c>
       <c r="O7">
         <f>6337/M7</f>
@@ -5785,15 +5946,19 @@
         <v>0.33998605075379579</v>
       </c>
       <c r="R7">
+        <f t="shared" si="2"/>
+        <v>2.6962775486397534E-3</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="3"/>
-        <v>2.6962775486397535E-4</v>
-      </c>
-      <c r="S7">
+        <v>370.88169966199905</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="4"/>
-        <v>3708.8169966199903</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>12</v>
       </c>
@@ -5841,7 +6006,7 @@
         <v>2.7614677264594422E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5876,7 +6041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5891,7 +6056,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
